--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yhord\OneDrive\Escritorio\2026\MediPro\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE922D7-B818-4A34-8E14-CB4B76F544FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D378CA3B-EA93-429D-9F22-66A49CE2BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>8503 - TOPE DE PUERTA</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>8502 - PLATINA</t>
+  </si>
+  <si>
+    <t>Garrucha armada</t>
+  </si>
+  <si>
+    <t>Pestillo</t>
   </si>
 </sst>
 </file>
@@ -494,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,6 +736,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yhord\OneDrive\Escritorio\2026\MediPro\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D378CA3B-EA93-429D-9F22-66A49CE2BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326A0B9-6D63-4A1E-ACE2-A8AFDC3BF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
     <t>Garrucha armada</t>
   </si>
   <si>
-    <t>Pestillo</t>
+    <t>Pestillos</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:A102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
